--- a/backend/data/formData.xlsx
+++ b/backend/data/formData.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -587,9 +587,29 @@
         <v>RW6792</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>steve</v>
+      </c>
+      <c r="B11" t="str">
+        <v>steve123@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>9834785784</v>
+      </c>
+      <c r="D11" t="str">
+        <v>coimbatore</v>
+      </c>
+      <c r="E11" t="str">
+        <v>19/2/2026, 4:27:52 pm</v>
+      </c>
+      <c r="F11" t="str">
+        <v>RW9820</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>
 </worksheet>
 </file>